--- a/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.06519957388168728</v>
+        <v>0.06519957388168729</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1334294253934592</v>
+        <v>0.1334294253934591</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.09793890660280694</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03017706931609545</v>
+        <v>0.03289819853582337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08657813395685031</v>
+        <v>0.08671856301794867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07039781372750264</v>
+        <v>0.06745830232797714</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1295228223620511</v>
+        <v>0.1182225841433722</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.189515841237071</v>
+        <v>0.1988967280596962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1358092136394362</v>
+        <v>0.1342421643050412</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.11405277245208</v>
+        <v>0.117836519644444</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1249611876245145</v>
+        <v>0.123407292280671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1319751918567819</v>
+        <v>0.1307939411896017</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.210947150724583</v>
+        <v>0.2106902070621924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1986323139095763</v>
+        <v>0.1974383497479552</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1898048709631504</v>
+        <v>0.191465083038337</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1820938196023259</v>
+        <v>0.182093819602326</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1768413117502796</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1497057554488991</v>
+        <v>0.1497496735695817</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1505404379961661</v>
+        <v>0.1512497582408771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1577338280743337</v>
+        <v>0.1575856550530608</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2188259513126463</v>
+        <v>0.2198531400193726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2047748773373216</v>
+        <v>0.2040645988111595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2035285978672122</v>
+        <v>0.2012123030905503</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1469241786669322</v>
+        <v>0.1476570777700062</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1857584130307911</v>
+        <v>0.1854919017892616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1746131438636671</v>
+        <v>0.174654819681766</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2068146840794318</v>
+        <v>0.2068241309773391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2334230455849037</v>
+        <v>0.2324432289512383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2130453316023652</v>
+        <v>0.2122644417268972</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.1979794425809886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.195130802377693</v>
+        <v>0.1951308023776929</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1601437698158786</v>
+        <v>0.1638880502351852</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1750071662038481</v>
+        <v>0.175207930184555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1776870408050785</v>
+        <v>0.1753198821415291</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2255122852583794</v>
+        <v>0.2262636364863766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2250975571492148</v>
+        <v>0.224961084031378</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2154506965958332</v>
+        <v>0.2170831665333346</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.2547968297169775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.2575196543964334</v>
+        <v>0.2575196543964335</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2265881347874771</v>
+        <v>0.2247131488041413</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2273053158010053</v>
+        <v>0.2258111081835183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.233448809096324</v>
+        <v>0.2338688981181404</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3052198229554384</v>
+        <v>0.3003355327610222</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2888205580195684</v>
+        <v>0.2850400143431365</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2839570298569819</v>
+        <v>0.2853278996683551</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1474238405289976</v>
+        <v>0.1428997550138779</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1514882665161347</v>
+        <v>0.1476587501452479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1581960387006756</v>
+        <v>0.1562829726422651</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.225258424034272</v>
+        <v>0.2234013681627158</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2089327326959856</v>
+        <v>0.2056424302113384</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2033452124679435</v>
+        <v>0.2045591815438593</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.1891432948173653</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10683</v>
+        <v>11647</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28274</v>
+        <v>28320</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47913</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45854</v>
+        <v>41853</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61892</v>
+        <v>64955</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>92431</v>
+        <v>91365</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51573</v>
+        <v>53284</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>58013</v>
+        <v>57292</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>120947</v>
+        <v>119864</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>95387</v>
+        <v>95271</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>92215</v>
+        <v>91661</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>173944</v>
+        <v>175465</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87885</v>
+        <v>87911</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>89125</v>
+        <v>89545</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>185982</v>
+        <v>185807</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>128462</v>
+        <v>129065</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>121234</v>
+        <v>120813</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>239978</v>
+        <v>237247</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>96980</v>
+        <v>97464</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>131195</v>
+        <v>131007</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>238580</v>
+        <v>238637</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>136512</v>
+        <v>136518</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>164859</v>
+        <v>164167</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>291092</v>
+        <v>290025</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>90984</v>
+        <v>93111</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>101280</v>
+        <v>101396</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>203782</v>
+        <v>201068</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>128123</v>
+        <v>128549</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130268</v>
+        <v>130189</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>247092</v>
+        <v>248964</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>85199</v>
+        <v>84494</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>95725</v>
+        <v>95095</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>186090</v>
+        <v>186425</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>114765</v>
+        <v>112928</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>121630</v>
+        <v>120038</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>226352</v>
+        <v>227445</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>41252</v>
+        <v>39986</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>64015</v>
+        <v>62397</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>111116</v>
+        <v>109773</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63032</v>
+        <v>62512</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>88290</v>
+        <v>86900</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142829</v>
+        <v>143682</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
     </row>
     <row r="36">
